--- a/extend/tpl/bill.xlsx
+++ b/extend/tpl/bill.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32460" windowHeight="14580"/>
+    <workbookView windowWidth="32460" windowHeight="14480"/>
   </bookViews>
   <sheets>
-    <sheet name="六猴" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
